--- a/sd_checklist_meta1_2019.xlsx
+++ b/sd_checklist_meta1_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\Ricardo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodas\Desktop\SD projeto\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CAB425-EBA6-4FB6-AB22-AFACE7F7C0E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B757047-3084-40D0-B817-F217EF1323FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
@@ -1056,28 +1056,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="27.09765625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="78.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="27.125" style="5"/>
+    <col min="2" max="2" width="88" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="27.09765625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2019987654</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f>A5+A18+A25+A31</f>
         <v>100</v>
@@ -1106,7 +1106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <f>SUM(A6:A17)</f>
         <v>46</v>
@@ -1119,7 +1119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1142,8 +1142,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="5">
+        <f>SUM(C6+C7+C8+C9+C11+C12+C13+C14+C15+C17+C19+C20+C21+C23+C26+C27+C30+C33+C35)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -1155,7 +1159,7 @@
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1167,7 +1171,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -1194,7 +1198,7 @@
       </c>
       <c r="D11" s="12"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -1221,7 +1225,7 @@
       </c>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1233,7 +1237,7 @@
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -1245,7 +1249,7 @@
       </c>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -1257,7 +1261,7 @@
       </c>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>4</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <f>SUM(A19:A24)</f>
         <v>24</v>
@@ -1285,7 +1289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -1297,7 +1301,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -1309,7 +1313,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>4</v>
       </c>
@@ -1319,9 +1323,9 @@
       <c r="C21" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>4</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>4</v>
       </c>
@@ -1348,7 +1352,7 @@
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>4</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <f>SUM(A26:A30)</f>
         <v>20</v>
@@ -1376,7 +1380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -1388,7 +1392,7 @@
       </c>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -1400,7 +1404,7 @@
       </c>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>4</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>4</v>
       </c>
@@ -1442,7 +1446,7 @@
       </c>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <f>SUM(A32:A36)</f>
         <v>10</v>
@@ -1455,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -1467,7 +1471,7 @@
       </c>
       <c r="D32" s="20"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -1479,7 +1483,7 @@
       </c>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -1491,7 +1495,7 @@
       </c>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2</v>
       </c>
@@ -1503,7 +1507,7 @@
       </c>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -1515,7 +1519,7 @@
       </c>
       <c r="D36" s="16"/>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
@@ -1542,25 +1546,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="16"/>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1569,18 +1573,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
@@ -1589,13 +1593,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>12</v>
       </c>
@@ -1604,32 +1608,32 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
         <v>45</v>
       </c>

--- a/sd_checklist_meta1_2019.xlsx
+++ b/sd_checklist_meta1_2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\Ricardo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SD\SD_projeto\SD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CAB425-EBA6-4FB6-AB22-AFACE7F7C0E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0413A02-19C4-4430-8BF2-C68EF87B766C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="2019-2020" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2019-2020'!$A$1:$C$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2019-2020'!$A$1:$C$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -223,6 +223,87 @@
   </si>
   <si>
     <t>Falta testar c 2</t>
+  </si>
+  <si>
+    <t>Registar admin</t>
+  </si>
+  <si>
+    <t>Registar user normal</t>
+  </si>
+  <si>
+    <t>Negar registo a user existente</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>É posivel fazer pesquisas sem registo</t>
+  </si>
+  <si>
+    <t>Apenas admin tem acesso as funcionalidades de admin</t>
+  </si>
+  <si>
+    <t>Apenas users registados têm histórico</t>
+  </si>
+  <si>
+    <t>Apenas users registados podem pesquisar por url</t>
+  </si>
+  <si>
+    <t>Apenas mostra as páginas com ambas as palavras</t>
+  </si>
+  <si>
+    <t>Apenas retorna as pesquisas de um utilizador</t>
+  </si>
+  <si>
+    <t>Ordena as páginas por número de vezes referenciadas</t>
+  </si>
+  <si>
+    <t>Apenas dá previlégios a utilizadores que não são admin</t>
+  </si>
+  <si>
+    <t>Utilizadores recebem notificações pendentes quando se ligam</t>
+  </si>
+  <si>
+    <t>Apenas dá previlégios a utilizadores registados</t>
+  </si>
+  <si>
+    <t>O cliente pode continuar a usar a aplicação com o backup</t>
+  </si>
+  <si>
+    <t>O sistema liga-se ao backup</t>
+  </si>
+  <si>
+    <t>Receber resposta após falha inferior a 30s</t>
+  </si>
+  <si>
+    <t>Desde que haja um multicast a funcionar os pedidos são processados</t>
+  </si>
+  <si>
+    <t>Servidores online ignoram pedidos de indexação que não têm o seu id</t>
+  </si>
+  <si>
+    <t>Apenas um servidor envia resposta</t>
+  </si>
+  <si>
+    <t>O servidor recebe pedidos com apenas um multicast</t>
+  </si>
+  <si>
+    <t>O servidor envia respostas com apenas um multicast</t>
+  </si>
+  <si>
+    <t>O servidor atualiza os dados permantetes</t>
+  </si>
+  <si>
+    <t>Se um multicast for abaixo quando recomeça vai ler a informação guardada</t>
+  </si>
+  <si>
+    <t>Cada servidor envia a lista de diferenças desde a ultima partilha</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -331,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -339,6 +420,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -497,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -558,6 +774,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1056,28 +1318,31 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="78.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="27.125" style="5"/>
+    <col min="2" max="2" width="86.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="27.125" style="5"/>
+    <col min="6" max="6" width="84.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="95.25" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="27.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1093,33 +1358,40 @@
         <v>2019987654</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <f>A5+A18+A25+A31</f>
+        <f>A5+A29+A39+A45</f>
         <v>100</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <f>C5+C18+C25+C31+C37+C43</f>
+        <f>C5+C29+C39+C45+C51+C57</f>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <f>SUM(A6:A17)</f>
+        <f>SUM(A6:A25)</f>
         <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f>SUM(C6:C17)</f>
+        <f>SUM(C6:C25)</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -1130,507 +1402,871 @@
         <v>2</v>
       </c>
       <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="F6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="D9" s="12"/>
+      <c r="F9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="G9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="D12" s="12"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="D13" s="12"/>
+      <c r="F13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="5">
-        <v>4</v>
-      </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="G13" s="23"/>
+      <c r="H13" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="F14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="F15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="G15" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="F16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5">
-        <v>4</v>
-      </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>4</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5">
-        <v>4</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4</v>
-      </c>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5">
-        <v>4</v>
-      </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5">
-        <v>4</v>
-      </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <f>SUM(A19:A24)</f>
+      <c r="F17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="F18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="F21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="F22" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5">
+        <v>4</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="F23" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="G23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5">
+        <v>4</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="F24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3">
-        <f>SUM(C19:C24)</f>
+      <c r="G24" s="22"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5">
-        <v>4</v>
-      </c>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>4</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="G25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5">
-        <v>4</v>
-      </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="G27" s="23"/>
+      <c r="H27" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="5">
-        <v>4</v>
-      </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <f>SUM(A30:A38)</f>
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="3">
+        <f>SUM(C30:C38)</f>
+        <v>24</v>
+      </c>
+      <c r="F29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5">
-        <v>4</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="18" t="s">
+      <c r="G29" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="F30" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="F31" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="D32" s="12"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="F33" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="F34" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>4</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5">
-        <v>4</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="F37" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="5">
-        <v>4</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="18" t="s">
+      <c r="C38" s="5">
+        <v>4</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <f>SUM(A26:A30)</f>
+      <c r="F38" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <f>SUM(A40:A44)</f>
         <v>20</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="3">
-        <f>SUM(C26:C30)</f>
+      <c r="C39" s="3">
+        <f>SUM(C40:C44)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>4</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="F39" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>4</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5">
-        <v>4</v>
-      </c>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>4</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="C40" s="5">
+        <v>4</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="F40" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="C41" s="5">
+        <v>4</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="F41" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="32"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>4</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="5">
-        <v>4</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19" t="s">
+      <c r="C42" s="5">
+        <v>4</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>4</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="F42" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5">
+        <v>4</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="5">
-        <v>4</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="18" t="s">
+      <c r="C43" s="5">
+        <v>4</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="18" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>4</v>
-      </c>
-      <c r="B30" s="7" t="s">
+      <c r="F43" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5">
-        <v>4</v>
-      </c>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <f>SUM(A32:A36)</f>
+      <c r="C44" s="5">
+        <v>4</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <f>SUM(A46:A50)</f>
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <f>SUM(C32:C36)</f>
+      <c r="C45" s="3">
+        <f>SUM(C46:C50)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="F45" s="7"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>2</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C46" s="5">
         <v>2</v>
       </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="D46" s="20"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>2</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C47" s="5">
         <v>2</v>
       </c>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C48" s="5">
         <v>2</v>
       </c>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>2</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C49" s="5">
         <v>2</v>
       </c>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>2</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C50" s="5">
         <v>2</v>
       </c>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="3">
-        <f>SUM(C38:C42)</f>
+      <c r="C51" s="3">
+        <f>SUM(C52:C56)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="7" t="s">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="18" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="18" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="7" t="s">
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="3">
-        <f>SUM(C44:C48)</f>
+      <c r="C57" s="3">
+        <f>SUM(C58:C62)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="s">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="s">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="2" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="5" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="18" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="2" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="2" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
         <v>45</v>
       </c>
     </row>
